--- a/altinkaya_excel_export/export_partner_statement/partner_statement.xlsx
+++ b/altinkaya_excel_export/export_partner_statement/partner_statement.xlsx
@@ -108,7 +108,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -146,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -159,6 +159,13 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -178,6 +185,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -208,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,11 +235,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,20 +263,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -273,16 +291,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>856440</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1822320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>553680</xdr:rowOff>
+      <xdr:rowOff>539280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,8 +313,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4209840" y="181080"/>
-          <a:ext cx="2263680" cy="372600"/>
+          <a:off x="2981520" y="161640"/>
+          <a:ext cx="2561760" cy="377640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -319,19 +337,18 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="10" style="0" width="14.5"/>
   </cols>
   <sheetData>
@@ -341,10 +358,10 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -379,8 +396,8 @@
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -410,12 +427,12 @@
       <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1414,12 +1431,13 @@
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
